--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_2_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2490241.570101186</v>
+        <v>2490241.570101185</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.7309950073</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.7309950073</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763974</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763974</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647382362.376274</v>
+        <v>62380380.03707916</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +676,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>403.5012844150354</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G2" t="n">
         <v>397.8840054528454</v>
@@ -746,7 +746,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>359.5662124879463</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
         <v>347.9376868977026</v>
@@ -764,7 +764,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -989,10 +989,10 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
-        <v>341.1383972643396</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
-        <v>339.6362423378769</v>
+        <v>338.1025423803039</v>
       </c>
       <c r="G6" t="n">
         <v>322.5970075731406</v>
@@ -1147,13 +1147,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E8" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F8" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
         <v>347.8590406130752</v>
@@ -1220,7 +1220,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C9" t="n">
-        <v>359.5662124879463</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
         <v>347.9376868977026</v>
@@ -1229,7 +1229,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
-        <v>339.6362423378769</v>
+        <v>338.1025423803039</v>
       </c>
       <c r="G9" t="n">
         <v>322.5970075731406</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1435,7 +1435,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W11" t="n">
         <v>638.3734759809475</v>
@@ -1505,7 +1505,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1523,7 +1523,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y12" t="n">
-        <v>397.8576928085612</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="13">
@@ -1569,10 +1569,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O13" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F14" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G14" t="n">
         <v>397.8840054528454</v>
@@ -1700,7 +1700,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E15" t="n">
-        <v>342.6720972219126</v>
+        <v>341.1383972643396</v>
       </c>
       <c r="F15" t="n">
         <v>339.6362423378769</v>
@@ -1742,7 +1742,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1806,7 +1806,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F20" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G20" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2277,13 +2277,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2517,7 +2517,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2751,10 +2751,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>133.3568653036801</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -2863,7 +2863,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y29" t="n">
         <v>511.3174326828064</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2991,7 +2991,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E32" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
         <v>404.8896287080119</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3228,7 +3228,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y35" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="36">
@@ -3462,10 +3462,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>133.3568653036801</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C38" t="n">
         <v>449.4745782429939</v>
@@ -3571,7 +3571,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W38" t="n">
-        <v>636.9851316879713</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
         <v>592.2818334606677</v>
@@ -3596,13 +3596,13 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E39" t="n">
-        <v>342.6720972219126</v>
+        <v>341.1383972643396</v>
       </c>
       <c r="F39" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G39" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H39" t="n">
         <v>301.8178796392513</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>165.2127885434264</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3805,7 +3805,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V41" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W41" t="n">
         <v>638.3734759809475</v>
@@ -3830,13 +3830,13 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D42" t="n">
-        <v>346.4039869401295</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E42" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F42" t="n">
-        <v>339.6362423378769</v>
+        <v>338.1025423803039</v>
       </c>
       <c r="G42" t="n">
         <v>322.5970075731406</v>
@@ -3939,7 +3939,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G44" t="n">
         <v>397.8840054528454</v>
@@ -4036,7 +4036,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4067,10 +4067,10 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
-        <v>346.4039869401295</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>341.1383972643396</v>
       </c>
       <c r="F45" t="n">
         <v>339.6362423378769</v>
@@ -4176,7 +4176,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
         <v>894.2358041069906</v>
@@ -4354,34 +4354,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P2" t="n">
-        <v>5912.12964013179</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4394,22 +4394,22 @@
         <v>2285.562842359567</v>
       </c>
       <c r="C3" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4497,22 +4497,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>438.4639669707671</v>
+        <v>426.6131206966358</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4588,37 +4588,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>1569.363247063383</v>
       </c>
       <c r="E6" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F6" t="n">
         <v>881.7120959500332</v>
@@ -4734,22 +4734,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
-        <v>438.4639669707671</v>
+        <v>426.6131206966358</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q7" t="n">
         <v>351.2038120028187</v>
@@ -4786,19 +4786,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
         <v>492.3327682960356</v>
@@ -4816,46 +4816,46 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473567</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987069</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.580088859741</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800485</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4868,13 +4868,13 @@
         <v>2285.562842359567</v>
       </c>
       <c r="C9" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F9" t="n">
         <v>881.7120959500332</v>
@@ -4971,16 +4971,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893197</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
         <v>426.6131206966359</v>
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
@@ -5062,37 +5062,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5153,22 +5153,22 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T12" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U12" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V12" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W12" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X12" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y12" t="n">
         <v>2675.553000545324</v>
@@ -5208,7 +5208,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
         <v>275.6639043471516</v>
@@ -5217,7 +5217,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
         <v>140.96</v>
@@ -5260,16 +5260,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
         <v>894.2358041069906</v>
@@ -5302,34 +5302,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C15" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D15" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E15" t="n">
         <v>1224.779007402434</v>
@@ -5390,25 +5390,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W15" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X15" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y15" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="16">
@@ -5445,7 +5445,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
         <v>275.6639043471516</v>
@@ -5512,7 +5512,7 @@
         <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5542,7 +5542,7 @@
         <v>5912.12964013179</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236999</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5682,7 +5682,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
         <v>275.6639043471516</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5761,49 +5761,49 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1443.86146323657</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L20" t="n">
-        <v>3188.24146323657</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M20" t="n">
-        <v>3670.420662750073</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N20" t="n">
-        <v>4235.463726622745</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O20" t="n">
-        <v>5145.618609563488</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.485937660902</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5919,16 +5919,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
         <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O22" t="n">
         <v>140.96</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -6022,25 +6022,25 @@
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="24">
@@ -6156,7 +6156,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
         <v>275.6639043471516</v>
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6247,37 +6247,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O26" t="n">
-        <v>5048.61527574625</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P26" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6393,13 +6393,13 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
         <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
         <v>140.96</v>
@@ -6484,31 +6484,31 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T29" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U29" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X29" t="n">
         <v>3583.51196363841</v>
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6630,7 +6630,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
         <v>275.6639043471516</v>
@@ -6691,13 +6691,13 @@
         <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6721,10 +6721,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O32" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P32" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236999</v>
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6867,7 +6867,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
         <v>275.6639043471516</v>
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6961,34 +6961,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7104,13 +7104,13 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
         <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
         <v>140.96</v>
@@ -7198,34 +7198,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>1569.363247063383</v>
       </c>
       <c r="E39" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F39" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G39" t="n">
         <v>555.8565327448407</v>
@@ -7341,16 +7341,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O40" t="n">
         <v>140.96</v>
@@ -7435,22 +7435,22 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
         <v>4826.598134791557</v>
@@ -7478,10 +7478,10 @@
         <v>1920.815456050962</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F42" t="n">
         <v>881.7120959500332</v>
@@ -7578,7 +7578,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
         <v>275.6639043471516</v>
@@ -7630,16 +7630,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
         <v>894.2358041069906</v>
@@ -7663,43 +7663,43 @@
         <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987069</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.580088859741</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>1920.815456050962</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E45" t="n">
         <v>1224.779007402434</v>
@@ -7815,7 +7815,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
         <v>275.6639043471516</v>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q2" t="n">
-        <v>567.8446588919066</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q5" t="n">
-        <v>595.7709581728425</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>822.5705182964566</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q11" t="n">
         <v>615.8520732695737</v>
@@ -8950,10 +8950,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>822.5705182964562</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9190,10 +9190,10 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>567.8446588919066</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566922</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>105.4961355485639</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633165835</v>
+        <v>105.6954007733557</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9895,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>842.6516333931884</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>595.7709581728425</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10132,13 +10132,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10369,13 +10369,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>822.5705182964562</v>
       </c>
       <c r="Q32" t="n">
-        <v>595.7709581728425</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10609,10 +10609,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>822.5705182964562</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>822.5705182964562</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>822.5705182964562</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q41" t="n">
         <v>615.8520732695737</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>822.5705182964565</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23411,7 +23411,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.533699957573106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P13" t="n">
         <v>368.8061924102448</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.388344292976399</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23986,13 +23986,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24165,13 +24165,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24639,10 +24639,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>34.66406242702101</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24751,7 +24751,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="36">
@@ -25350,10 +25350,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>34.66406242702101</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>107.6476277959926</v>
@@ -25593,7 +25593,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O40" t="n">
-        <v>102.8454312732933</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P40" t="n">
         <v>368.8061924102448</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.533699957572935</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16635.20169611366</v>
+        <v>1366403.055422136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33181.61982254724</v>
+        <v>2720233.373779674</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49728.03794898081</v>
+        <v>4074063.692137214</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68560.63564458962</v>
+        <v>5286709.86049238</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87393.23334019845</v>
+        <v>6499356.028847546</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106225.8310358073</v>
+        <v>7712002.197202704</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125058.4287314161</v>
+        <v>8924648.365557861</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143891.0264270249</v>
+        <v>10137294.53391302</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162723.6241226337</v>
+        <v>11349940.70226817</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181556.2218182425</v>
+        <v>12562586.87062333</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200388.8195138513</v>
+        <v>13775233.03897848</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219221.4172094601</v>
+        <v>14987879.20733365</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238054.0149050691</v>
+        <v>16200525.37568882</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256886.6126006782</v>
+        <v>17413171.544044</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275719.2102962873</v>
+        <v>18625817.71239918</v>
       </c>
     </row>
   </sheetData>
@@ -26319,46 +26319,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245017</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245017</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245013</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="E2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="F2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="G2" t="n">
         <v>761428.9894323123</v>
       </c>
-      <c r="F2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="G2" t="n">
-        <v>761428.9894323125</v>
-      </c>
       <c r="H2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="I2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="J2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="K2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="L2" t="n">
         <v>761428.9894323123</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="N2" t="n">
         <v>761428.9894323123</v>
       </c>
-      <c r="L2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323125</v>
-      </c>
       <c r="O2" t="n">
-        <v>761428.9894323127</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="P2" t="n">
         <v>761428.9894323127</v>
@@ -26423,19 +26423,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163514</v>
+        <v>89075.80382163521</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715398</v>
+        <v>88773.85276715407</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722097</v>
+        <v>88471.49209722105</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="G4" t="n">
         <v>13783.46259850302</v>
@@ -26447,25 +26447,25 @@
         <v>13783.46259850302</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850303</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="K4" t="n">
+        <v>13783.46259850301</v>
+      </c>
+      <c r="L4" t="n">
         <v>13783.46259850302</v>
       </c>
-      <c r="L4" t="n">
-        <v>13783.46259850303</v>
-      </c>
       <c r="M4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
     </row>
     <row r="5">
@@ -26527,46 +26527,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1456302.301597133</v>
+        <v>-1456302.301597134</v>
       </c>
       <c r="C6" t="n">
-        <v>588698.6494573477</v>
+        <v>588698.6494573473</v>
       </c>
       <c r="D6" t="n">
         <v>589001.0101272804</v>
       </c>
       <c r="E6" t="n">
+        <v>608666.1268338092</v>
+      </c>
+      <c r="F6" t="n">
+        <v>608666.1268338094</v>
+      </c>
+      <c r="G6" t="n">
         <v>608666.1268338093</v>
       </c>
-      <c r="F6" t="n">
-        <v>608666.1268338093</v>
-      </c>
-      <c r="G6" t="n">
-        <v>608666.1268338095</v>
-      </c>
       <c r="H6" t="n">
-        <v>608666.1268338093</v>
+        <v>608666.1268338092</v>
       </c>
       <c r="I6" t="n">
         <v>608666.1268338093</v>
       </c>
       <c r="J6" t="n">
-        <v>-11557.87316619071</v>
+        <v>-11557.87316619081</v>
       </c>
       <c r="K6" t="n">
+        <v>608666.1268338095</v>
+      </c>
+      <c r="L6" t="n">
         <v>608666.1268338093</v>
       </c>
-      <c r="L6" t="n">
-        <v>608666.1268338095</v>
-      </c>
       <c r="M6" t="n">
+        <v>608666.1268338094</v>
+      </c>
+      <c r="N6" t="n">
         <v>608666.1268338093</v>
       </c>
-      <c r="N6" t="n">
-        <v>608666.1268338095</v>
-      </c>
       <c r="O6" t="n">
-        <v>608666.1268338097</v>
+        <v>608666.1268338092</v>
       </c>
       <c r="P6" t="n">
         <v>608666.1268338097</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.388344292976456</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
+        <v>388.0294482079482</v>
+      </c>
+      <c r="P4" t="n">
         <v>400</v>
-      </c>
-      <c r="P4" t="n">
-        <v>388.0294482079482</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27799,7 +27799,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.533699957572935</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
+        <v>388.0294482079482</v>
+      </c>
+      <c r="P7" t="n">
         <v>400</v>
-      </c>
-      <c r="P7" t="n">
-        <v>388.0294482079482</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27991,13 +27991,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.533699957572935</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -28176,10 +28176,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079482</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -34846,10 +34846,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q2" t="n">
-        <v>1029.279517277989</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>19.22325579770342</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35080,13 +35080,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1057.205816558925</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P7" t="n">
-        <v>19.22325579770342</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35308,13 +35308,13 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1749.431854979874</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1393.32108786481</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35472,10 +35472,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>31.19380758975518</v>
@@ -35554,10 +35554,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q11" t="n">
         <v>1077.286931655656</v>
@@ -35794,10 +35794,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1666.880950718086</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R14" t="n">
         <v>118.0642805686905</v>
@@ -36034,10 +36034,10 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
-        <v>1029.279517277989</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102268</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36253,10 +36253,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>852.6104219807247</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>1032.556737456773</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36274,7 +36274,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36739,13 +36739,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>1762</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1057.205816558925</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36976,13 +36976,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37213,13 +37213,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718086</v>
       </c>
       <c r="Q32" t="n">
-        <v>1057.205816558925</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37453,10 +37453,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1666.880950718086</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1666.880950718086</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37927,7 +37927,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1666.880950718086</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q41" t="n">
         <v>1077.286931655656</v>
@@ -38155,7 +38155,7 @@
         <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>1309.620214774742</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38164,10 +38164,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
